--- a/data/Production_Filled_June.xlsx
+++ b/data/Production_Filled_June.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\Filter_form\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Total_Salable_Prod" sheetId="2" r:id="rId2"/>
+    <sheet name="Product_Wise" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
   <si>
     <t>DATE</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>JUNE TOTAL SALABLE PRODUCTION</t>
   </si>
   <si>
     <t xml:space="preserve">14/10 &amp; 36 lbs SALE YARN </t>
@@ -365,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,14 +398,6 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -597,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -629,7 +618,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -645,12 +634,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +648,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6569,7 +6555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
@@ -6581,142 +6567,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="V1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="W1" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="X1" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="Y1" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Z1" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="AA1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AB1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AC1" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AD1" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AE1" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AF1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AG1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AH1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="AH1" s="32" t="s">
+      <c r="AI1" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AJ1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" s="32" t="s">
+      <c r="AK1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="32" t="s">
+      <c r="AL1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="32" t="s">
+      <c r="AM1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AM1" s="32" t="s">
+      <c r="AN1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="AN1" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AO1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AP1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AQ1" s="38" t="s">
+      <c r="AQ1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AR1" s="38" t="s">
+      <c r="AR1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="38" t="s">
+      <c r="AS1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="39" t="s">
+      <c r="AT1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9271,10 +9257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9287,687 +9273,685 @@
     <col min="6" max="6" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>13</v>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B2" s="11">
+        <v>30.274999999999999</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D2" s="11">
+        <v>4.0780000000000003</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUM(B2:E2)</f>
+        <v>35.747999999999998</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUM(B2:E2)-C2</f>
+        <v>35.146000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45809</v>
-      </c>
-      <c r="B3" s="11">
-        <v>30.274999999999999</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="D3" s="11">
-        <v>4.0780000000000003</v>
-      </c>
-      <c r="E3" s="13">
+        <v>45810</v>
+      </c>
+      <c r="B3" s="3">
+        <v>33.54</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.61</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="E3" s="15">
         <v>0.79300000000000004</v>
       </c>
       <c r="F3" s="3">
-        <f>SUM(B3:E3)</f>
-        <v>35.747999999999998</v>
+        <f t="shared" ref="F3:F27" si="0">SUM(B3:E3)</f>
+        <v>40.872</v>
       </c>
       <c r="G3" s="3">
-        <f>SUM(B3:E3)-C3</f>
-        <v>35.146000000000001</v>
+        <f t="shared" ref="G3:G27" si="1">SUM(B3:E3)-C3</f>
+        <v>39.262</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45810</v>
-      </c>
-      <c r="B4" s="3">
-        <v>33.54</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1.61</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.9290000000000003</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.79300000000000004</v>
+        <v>45811</v>
+      </c>
+      <c r="B4" s="11">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4.9320000000000004</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.80500000000000005</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F28" si="0">SUM(B4:E4)</f>
-        <v>40.872</v>
+        <f t="shared" si="0"/>
+        <v>40.805000000000007</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G28" si="1">SUM(B4:E4)-C4</f>
-        <v>39.262</v>
+        <f t="shared" si="1"/>
+        <v>39.867000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45811</v>
-      </c>
-      <c r="B5" s="11">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="D5" s="11">
-        <v>4.9320000000000004</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.80500000000000005</v>
+        <v>45812</v>
+      </c>
+      <c r="B5" s="3">
+        <v>34.558999999999997</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.77500000000000002</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>40.805000000000007</v>
+        <v>40.408999999999999</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
-        <v>39.867000000000004</v>
+        <v>40.408999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45812</v>
-      </c>
-      <c r="B6" s="3">
-        <v>34.558999999999997</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5.0750000000000002</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.77500000000000002</v>
+        <v>45813</v>
+      </c>
+      <c r="B6" s="11">
+        <v>33.543999999999997</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.78888000000000003</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>40.408999999999999</v>
+        <v>40.38588</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>40.408999999999999</v>
+        <v>39.307879999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45813</v>
-      </c>
-      <c r="B7" s="11">
-        <v>33.543999999999997</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="D7" s="11">
-        <v>4.9749999999999996</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.78888000000000003</v>
+        <v>45815</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>40.38588</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>39.307879999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45815</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>14</v>
+        <v>45816</v>
+      </c>
+      <c r="B8" s="11">
+        <v>29.891999999999999</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3.855</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.77500000000000002</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34.521999999999998</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>34.521999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45816</v>
-      </c>
-      <c r="B9" s="11">
-        <v>29.891999999999999</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>3.855</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.77500000000000002</v>
+        <v>45817</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>34.521999999999998</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
-        <v>34.521999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45817</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
+        <v>45818</v>
+      </c>
+      <c r="B10" s="11">
+        <v>33.591999999999999</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.008</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.78600000000000003</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35.386000000000003</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34.378</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B11" s="11">
-        <v>33.591999999999999</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1.008</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
+        <v>45819</v>
+      </c>
+      <c r="B11" s="3">
+        <v>34.125999999999998</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.383</v>
+      </c>
+      <c r="E11" s="15">
         <v>0.78600000000000003</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>35.386000000000003</v>
+        <v>41.325000000000003</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>34.378</v>
+        <v>39.295000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45819</v>
-      </c>
-      <c r="B12" s="3">
-        <v>34.125999999999998</v>
-      </c>
-      <c r="C12" s="14">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4.383</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.78600000000000003</v>
+        <v>45820</v>
+      </c>
+      <c r="B12" s="11">
+        <v>33.472000000000001</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4.976</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.80400000000000005</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>41.325000000000003</v>
+        <v>41.184000000000005</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
-        <v>39.295000000000002</v>
+        <v>39.252000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45820</v>
-      </c>
-      <c r="B13" s="11">
-        <v>33.472000000000001</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1.9319999999999999</v>
-      </c>
-      <c r="D13" s="11">
-        <v>4.976</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.80400000000000005</v>
+        <v>45822</v>
+      </c>
+      <c r="B13" s="3">
+        <v>33.244999999999997</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1.89</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.7930000000000001</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.77300000000000002</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>41.184000000000005</v>
+        <v>39.701000000000001</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>39.252000000000002</v>
+        <v>37.811</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45822</v>
-      </c>
-      <c r="B14" s="3">
-        <v>33.244999999999997</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1.89</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3.7930000000000001</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.77300000000000002</v>
+        <v>45823</v>
+      </c>
+      <c r="B14" s="11">
+        <v>34.033000000000001</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3.81</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.79300000000000004</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>39.701000000000001</v>
+        <v>40.596000000000004</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>37.811</v>
+        <v>38.636000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45823</v>
-      </c>
-      <c r="B15" s="11">
-        <v>34.033000000000001</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1.96</v>
-      </c>
-      <c r="D15" s="11">
-        <v>3.81</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.79300000000000004</v>
+        <v>45824</v>
+      </c>
+      <c r="B15" s="3">
+        <v>32.677999999999997</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1.708</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.77800000000000002</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>40.596000000000004</v>
+        <v>36.183999999999997</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
-        <v>38.636000000000003</v>
+        <v>34.475999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45824</v>
-      </c>
-      <c r="B16" s="3">
-        <v>32.677999999999997</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1.708</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.77800000000000002</v>
+        <v>45825</v>
+      </c>
+      <c r="B16" s="11">
+        <v>33.936999999999998</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4.915</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.76800000000000002</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>36.183999999999997</v>
+        <v>40.18</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="1"/>
-        <v>34.475999999999999</v>
+        <v>39.619999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45825</v>
-      </c>
-      <c r="B17" s="11">
-        <v>33.936999999999998</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D17" s="11">
-        <v>4.915</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0.76800000000000002</v>
+        <v>45826</v>
+      </c>
+      <c r="B17" s="3">
+        <v>34.51</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1.19</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.76600000000000001</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>40.18</v>
+        <v>39.715999999999994</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>39.619999999999997</v>
+        <v>38.525999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45826</v>
-      </c>
-      <c r="B18" s="3">
-        <v>34.51</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1.19</v>
+        <v>45827</v>
+      </c>
+      <c r="B18" s="11">
+        <v>34.173999999999999</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1.526</v>
       </c>
       <c r="D18" s="3">
-        <v>3.25</v>
-      </c>
-      <c r="E18" s="15">
+        <v>3.18</v>
+      </c>
+      <c r="E18" s="13">
         <v>0.76600000000000001</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>39.715999999999994</v>
+        <v>39.646000000000001</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
-        <v>38.525999999999996</v>
+        <v>38.119999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45827</v>
-      </c>
-      <c r="B19" s="11">
-        <v>34.173999999999999</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1.526</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3.18</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.76600000000000001</v>
+        <v>45829</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>39.646000000000001</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>38.119999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45829</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>14</v>
+        <v>45830</v>
+      </c>
+      <c r="B20" s="11">
+        <v>35.148000000000003</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.79300000000000004</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.030999999999999</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40.030999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45830</v>
-      </c>
-      <c r="B21" s="11">
-        <v>35.148000000000003</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
-        <v>4.09</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0.79300000000000004</v>
+        <v>45831</v>
+      </c>
+      <c r="B21" s="3">
+        <v>36.747</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.78300000000000003</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>40.030999999999999</v>
+        <v>41.36</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>40.030999999999999</v>
+        <v>41.36</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45831</v>
-      </c>
-      <c r="B22" s="3">
-        <v>36.747</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3.83</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.78300000000000003</v>
+        <v>45832</v>
+      </c>
+      <c r="B22" s="16">
+        <v>34.512</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.63</v>
+      </c>
+      <c r="D22" s="16">
+        <v>3.5819999999999999</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.80400000000000005</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>41.36</v>
+        <v>39.528000000000006</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="1"/>
-        <v>41.36</v>
+        <v>38.898000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45832</v>
-      </c>
-      <c r="B23" s="16">
-        <v>34.512</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.63</v>
-      </c>
-      <c r="D23" s="16">
-        <v>3.5819999999999999</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0.80400000000000005</v>
+        <v>45833</v>
+      </c>
+      <c r="B23" s="3">
+        <v>35.661999999999999</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3.585</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.78900000000000003</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>39.528000000000006</v>
+        <v>40.036000000000001</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="1"/>
-        <v>38.898000000000003</v>
+        <v>40.036000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B24" s="3">
-        <v>35.661999999999999</v>
+        <v>35.134</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D24" s="3">
-        <v>3.585</v>
+        <v>2.6</v>
       </c>
       <c r="E24" s="3">
-        <v>0.78900000000000003</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>40.036000000000001</v>
+        <v>39.365000000000002</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="1"/>
-        <v>40.036000000000001</v>
+        <v>38.524999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45834</v>
+        <v>45836</v>
       </c>
       <c r="B25" s="3">
-        <v>35.134</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="C25" s="3">
-        <v>0.84</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D25" s="3">
-        <v>2.6</v>
+        <v>4.92</v>
       </c>
       <c r="E25" s="3">
-        <v>0.79100000000000004</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>39.365000000000002</v>
+        <v>41.902999999999999</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="1"/>
-        <v>38.524999999999999</v>
+        <v>41.622999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45836</v>
+        <v>45837</v>
       </c>
       <c r="B26" s="3">
-        <v>35.909999999999997</v>
+        <v>35.706000000000003</v>
       </c>
       <c r="C26" s="3">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>4.92</v>
+        <v>5.4</v>
       </c>
       <c r="E26" s="3">
-        <v>0.79300000000000004</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>41.902999999999999</v>
+        <v>41.904000000000003</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="1"/>
-        <v>41.622999999999998</v>
+        <v>41.904000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45837</v>
-      </c>
-      <c r="B27" s="3">
-        <v>35.706000000000003</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.79800000000000004</v>
+        <v>45838</v>
+      </c>
+      <c r="B27" s="4">
+        <v>36.686</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5.7629999999999999</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.79300000000000004</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>41.904000000000003</v>
+        <v>43.241999999999997</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="1"/>
-        <v>41.904000000000003</v>
+        <v>43.241999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>45838</v>
-      </c>
-      <c r="B28" s="4">
-        <v>36.686</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>5.7629999999999999</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>43.241999999999997</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
-        <v>43.241999999999997</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -9975,31 +9959,19 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="19" t="s">
+      <c r="F29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="20">
-        <f>SUM(G3:G27)</f>
+      <c r="G29" s="20">
+        <f>SUM(G2:G26)</f>
         <v>851.00488000000007</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F3:F27 G3:G7 F28:G28 G9:G13 G26:G27 G14:G19 G21:G25" formulaRange="1"/>
+    <ignoredError sqref="F2:F26 G2:G6 F27:G27 G8:G12 G25:G26 G13:G18 G20:G24" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10008,9 +9980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10108,7 +10080,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>37.707999999999998</v>
@@ -10185,7 +10157,7 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4">
         <v>2.3559999999999999</v>
@@ -10263,7 +10235,7 @@
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ref="B6:AA6" si="0">B2+B3</f>
@@ -10372,14 +10344,14 @@
     </row>
     <row r="8" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="22"/>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="23">
         <v>128</v>
@@ -10458,7 +10430,7 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>1.4</v>
@@ -10491,7 +10463,7 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>0.2</v>
@@ -10538,7 +10510,7 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>0.82099999999999995</v>
@@ -10617,7 +10589,7 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>18.334</v>
@@ -10696,7 +10668,7 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -10745,7 +10717,7 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
@@ -10778,7 +10750,7 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10843,7 +10815,7 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3">
         <v>12.34</v>
@@ -10925,7 +10897,7 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3">
         <v>1.956</v>
@@ -10990,7 +10962,7 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -11021,7 +10993,7 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -11078,7 +11050,7 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -11109,7 +11081,7 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -11148,7 +11120,7 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -11191,7 +11163,7 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3">
         <v>2.1219999999999999</v>
@@ -11258,7 +11230,7 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>1.01</v>
@@ -11469,7 +11441,7 @@
     <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30:AA30" si="3">B6-B28</f>
@@ -11577,15 +11549,15 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3">
         <v>0.79300000000000004</v>
@@ -11665,7 +11637,7 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" ref="B35:AA35" si="4">SUM(B33:B34)</f>
@@ -11773,15 +11745,15 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3">
         <v>2.218</v>
@@ -11866,7 +11838,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -11907,7 +11879,7 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="3">
         <v>24.364000000000001</v>
@@ -11986,7 +11958,7 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3">
         <v>3.11</v>
@@ -12065,7 +12037,7 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3">
         <v>0.45100000000000001</v>
@@ -12144,7 +12116,7 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3">
         <v>0.13300000000000001</v>
@@ -12225,7 +12197,7 @@
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="4">
         <f>SUM(B37:B44)</f>
@@ -12335,7 +12307,7 @@
     <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="4">
         <f t="shared" ref="B48:AA48" si="6">B28-B35-B46</f>
@@ -12446,11 +12418,11 @@
       <c r="C49" s="31"/>
     </row>
     <row r="51" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
+      <c r="A51" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="24"/>
@@ -12477,7 +12449,7 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -12554,7 +12526,7 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3">
         <v>13.5</v>
@@ -12631,7 +12603,7 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="3">
         <v>0.6</v>
@@ -12708,7 +12680,7 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="3">
         <v>15.5</v>
@@ -12785,7 +12757,7 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="3">
         <v>2.5</v>
@@ -12862,7 +12834,7 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="3">
         <v>151.34800000000001</v>
@@ -12939,7 +12911,7 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="3">
         <v>3</v>
@@ -13014,7 +12986,7 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -13045,7 +13017,7 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="3">
         <v>56.957000000000001</v>
@@ -13122,7 +13094,7 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3">
@@ -13197,7 +13169,7 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -13230,7 +13202,7 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -13307,7 +13279,7 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -13338,7 +13310,7 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" s="3">
         <v>5</v>
@@ -13415,7 +13387,7 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -13657,7 +13629,7 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="3">
@@ -13818,11 +13790,11 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
+      <c r="A73" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -13849,7 +13821,7 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="3">
         <v>2.4</v>
@@ -13926,7 +13898,7 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
@@ -14003,7 +13975,7 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="3">
         <v>4.3499999999999996</v>
@@ -14080,7 +14052,7 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
@@ -14157,7 +14129,7 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="3">
         <v>10.02</v>
@@ -14234,7 +14206,7 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -14311,7 +14283,7 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3">
@@ -14386,7 +14358,7 @@
     </row>
     <row r="81" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="3">
         <v>0.72</v>
@@ -14455,7 +14427,7 @@
     </row>
     <row r="82" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82" s="3">
         <v>1.335</v>
@@ -14532,7 +14504,7 @@
     </row>
     <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" s="3">
         <v>0.78</v>
@@ -14774,7 +14746,7 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3">
@@ -14908,7 +14880,7 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" ref="B89:AA89" si="12">+B69+B86</f>
@@ -15045,7 +15017,7 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3">

--- a/data/Production_Filled_June.xlsx
+++ b/data/Production_Filled_June.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\Filter_form\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\Filter_form\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>DATE</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>WITH OUT TAW ROLL PROD.</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t xml:space="preserve">14/10 &amp; 36 lbs SALE YARN </t>
@@ -6555,8 +6552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AN10"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6586,106 +6583,106 @@
         <v>11</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="P1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="U1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="V1" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="W1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="X1" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="Y1" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Z1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="AA1" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AB1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AC1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AD1" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AE1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AF1" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AG1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AH1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AH1" s="32" t="s">
+      <c r="AI1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AJ1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="AJ1" s="32" t="s">
+      <c r="AK1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="AK1" s="32" t="s">
+      <c r="AL1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AL1" s="32" t="s">
+      <c r="AM1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AM1" s="32" t="s">
+      <c r="AN1" s="37" t="s">
         <v>107</v>
-      </c>
-      <c r="AN1" s="37" t="s">
-        <v>108</v>
       </c>
       <c r="AO1" s="36" t="s">
         <v>3</v>
@@ -9260,7 +9257,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9284,7 +9281,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>11</v>
@@ -9425,17 +9422,17 @@
       <c r="A7" s="2">
         <v>45815</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>14</v>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
@@ -9727,14 +9724,14 @@
       <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>14</v>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
@@ -9980,7 +9977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
@@ -10080,7 +10077,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>37.707999999999998</v>
@@ -10157,7 +10154,7 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>2.3559999999999999</v>
@@ -10235,7 +10232,7 @@
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ref="B6:AA6" si="0">B2+B3</f>
@@ -10344,14 +10341,14 @@
     </row>
     <row r="8" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="22"/>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="23">
         <v>128</v>
@@ -10430,7 +10427,7 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>1.4</v>
@@ -10463,7 +10460,7 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
         <v>0.2</v>
@@ -10510,7 +10507,7 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3">
         <v>0.82099999999999995</v>
@@ -10589,7 +10586,7 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
         <v>18.334</v>
@@ -10668,7 +10665,7 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -10717,7 +10714,7 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
@@ -10750,7 +10747,7 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10815,7 +10812,7 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3">
         <v>12.34</v>
@@ -10897,7 +10894,7 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
         <v>1.956</v>
@@ -10962,7 +10959,7 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10993,7 +10990,7 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -11050,7 +11047,7 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -11081,7 +11078,7 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -11120,7 +11117,7 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -11163,7 +11160,7 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3">
         <v>2.1219999999999999</v>
@@ -11230,7 +11227,7 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3">
         <v>1.01</v>
@@ -11441,7 +11438,7 @@
     <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30:AA30" si="3">B6-B28</f>
@@ -11550,14 +11547,14 @@
     </row>
     <row r="32" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3">
         <v>0.79300000000000004</v>
@@ -11637,7 +11634,7 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" ref="B35:AA35" si="4">SUM(B33:B34)</f>
@@ -11746,14 +11743,14 @@
     </row>
     <row r="37" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3">
         <v>2.218</v>
@@ -11838,7 +11835,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -11879,7 +11876,7 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3">
         <v>24.364000000000001</v>
@@ -11958,7 +11955,7 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3">
         <v>3.11</v>
@@ -12037,7 +12034,7 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="3">
         <v>0.45100000000000001</v>
@@ -12116,7 +12113,7 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3">
         <v>0.13300000000000001</v>
@@ -12197,7 +12194,7 @@
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="4">
         <f>SUM(B37:B44)</f>
@@ -12307,7 +12304,7 @@
     <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="4">
         <f t="shared" ref="B48:AA48" si="6">B28-B35-B46</f>
@@ -12419,7 +12416,7 @@
     </row>
     <row r="51" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
@@ -12449,7 +12446,7 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -12526,7 +12523,7 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3">
         <v>13.5</v>
@@ -12603,7 +12600,7 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="3">
         <v>0.6</v>
@@ -12680,7 +12677,7 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="3">
         <v>15.5</v>
@@ -12757,7 +12754,7 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" s="3">
         <v>2.5</v>
@@ -12834,7 +12831,7 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="3">
         <v>151.34800000000001</v>
@@ -12911,7 +12908,7 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="3">
         <v>3</v>
@@ -12986,7 +12983,7 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -13017,7 +13014,7 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="3">
         <v>56.957000000000001</v>
@@ -13094,7 +13091,7 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3">
@@ -13169,7 +13166,7 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -13202,7 +13199,7 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -13279,7 +13276,7 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -13310,7 +13307,7 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="3">
         <v>5</v>
@@ -13387,7 +13384,7 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -13629,7 +13626,7 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="3">
@@ -13791,7 +13788,7 @@
     </row>
     <row r="73" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" s="40"/>
       <c r="C73" s="40"/>
@@ -13821,7 +13818,7 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74" s="3">
         <v>2.4</v>
@@ -13898,7 +13895,7 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
@@ -13975,7 +13972,7 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="3">
         <v>4.3499999999999996</v>
@@ -14052,7 +14049,7 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
@@ -14129,7 +14126,7 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78" s="3">
         <v>10.02</v>
@@ -14206,7 +14203,7 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -14283,7 +14280,7 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3">
@@ -14358,7 +14355,7 @@
     </row>
     <row r="81" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="3">
         <v>0.72</v>
@@ -14427,7 +14424,7 @@
     </row>
     <row r="82" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" s="3">
         <v>1.335</v>
@@ -14504,7 +14501,7 @@
     </row>
     <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="3">
         <v>0.78</v>
@@ -14746,7 +14743,7 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3">
@@ -14880,7 +14877,7 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" ref="B89:AA89" si="12">+B69+B86</f>
@@ -15017,7 +15014,7 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3">

--- a/data/Production_Filled_June.xlsx
+++ b/data/Production_Filled_June.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Total_Salable_Prod" sheetId="2" r:id="rId2"/>
     <sheet name="Product_Wise" sheetId="3" r:id="rId3"/>
+    <sheet name="Spinning_Prod" sheetId="4" r:id="rId4"/>
+    <sheet name="Twisting_Prod" sheetId="5" r:id="rId5"/>
+    <sheet name="Weaving_Prod" sheetId="6" r:id="rId6"/>
+    <sheet name="Spool_Winding_Stock" sheetId="7" r:id="rId7"/>
+    <sheet name="Cop_Winding_Stock" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
   <si>
     <t>DATE</t>
   </si>
@@ -359,7 +364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +407,29 @@
     <font>
       <u/>
       <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -583,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -645,6 +673,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6552,7 +6589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
@@ -9978,8 +10015,8 @@
   <dimension ref="A1:AA91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74:AA83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9996,6 +10033,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="28">
         <v>45809</v>
       </c>
@@ -11546,11 +11586,11 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -11742,11 +11782,11 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -12415,11 +12455,11 @@
       <c r="C49" s="31"/>
     </row>
     <row r="51" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="24"/>
@@ -13787,11 +13827,11 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -15129,4 +15169,4396 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA18"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42">
+        <v>45809</v>
+      </c>
+      <c r="C1" s="42">
+        <v>45810</v>
+      </c>
+      <c r="D1" s="42">
+        <v>45811</v>
+      </c>
+      <c r="E1" s="42">
+        <v>45812</v>
+      </c>
+      <c r="F1" s="42">
+        <v>45813</v>
+      </c>
+      <c r="G1" s="42">
+        <v>45815</v>
+      </c>
+      <c r="H1" s="42">
+        <v>45816</v>
+      </c>
+      <c r="I1" s="42">
+        <v>45817</v>
+      </c>
+      <c r="J1" s="42">
+        <v>45818</v>
+      </c>
+      <c r="K1" s="42">
+        <v>45819</v>
+      </c>
+      <c r="L1" s="42">
+        <v>45820</v>
+      </c>
+      <c r="M1" s="42">
+        <v>45822</v>
+      </c>
+      <c r="N1" s="42">
+        <v>45823</v>
+      </c>
+      <c r="O1" s="42">
+        <v>45824</v>
+      </c>
+      <c r="P1" s="42">
+        <v>45825</v>
+      </c>
+      <c r="Q1" s="42">
+        <v>45826</v>
+      </c>
+      <c r="R1" s="42">
+        <v>45827</v>
+      </c>
+      <c r="S1" s="42">
+        <v>45829</v>
+      </c>
+      <c r="T1" s="42">
+        <v>45830</v>
+      </c>
+      <c r="U1" s="42">
+        <v>45831</v>
+      </c>
+      <c r="V1" s="42">
+        <v>45832</v>
+      </c>
+      <c r="W1" s="42">
+        <v>45833</v>
+      </c>
+      <c r="X1" s="42">
+        <v>45834</v>
+      </c>
+      <c r="Y1" s="42">
+        <v>45836</v>
+      </c>
+      <c r="Z1" s="42">
+        <v>45837</v>
+      </c>
+      <c r="AA1" s="42">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="23">
+        <v>128</v>
+      </c>
+      <c r="C2" s="23">
+        <v>133</v>
+      </c>
+      <c r="D2" s="23">
+        <v>135</v>
+      </c>
+      <c r="E2" s="23">
+        <v>134</v>
+      </c>
+      <c r="F2" s="23">
+        <v>135</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23">
+        <v>93.5</v>
+      </c>
+      <c r="I2" s="23">
+        <v>116.5</v>
+      </c>
+      <c r="J2" s="23">
+        <v>126.5</v>
+      </c>
+      <c r="K2" s="23">
+        <v>132.5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>136</v>
+      </c>
+      <c r="M2" s="29">
+        <v>134</v>
+      </c>
+      <c r="N2" s="23">
+        <v>134.5</v>
+      </c>
+      <c r="O2" s="23">
+        <v>136</v>
+      </c>
+      <c r="P2" s="23">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>135</v>
+      </c>
+      <c r="R2" s="23">
+        <v>136</v>
+      </c>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23">
+        <v>139</v>
+      </c>
+      <c r="U2" s="23">
+        <v>139</v>
+      </c>
+      <c r="V2" s="23">
+        <v>139</v>
+      </c>
+      <c r="W2" s="23">
+        <v>139</v>
+      </c>
+      <c r="X2" s="23">
+        <v>139</v>
+      </c>
+      <c r="Y2" s="23">
+        <v>139</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>139</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.345</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.113</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.331</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.288</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.337</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.335</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>18.334</v>
+      </c>
+      <c r="C6" s="3">
+        <v>17.684999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>18.445</v>
+      </c>
+      <c r="E6" s="3">
+        <v>17.923999999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>18.16</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>12.425000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>17.914000000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <v>19.872</v>
+      </c>
+      <c r="K6" s="3">
+        <v>18.515000000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="M6" s="3">
+        <v>18.972999999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>19.835000000000001</v>
+      </c>
+      <c r="O6" s="3">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="P6" s="3">
+        <v>20.27</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="R6" s="3">
+        <v>19.908999999999999</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
+        <v>18.146000000000001</v>
+      </c>
+      <c r="U6" s="3">
+        <v>17.45</v>
+      </c>
+      <c r="V6" s="3">
+        <v>17.38</v>
+      </c>
+      <c r="W6" s="3">
+        <v>17.466000000000001</v>
+      </c>
+      <c r="X6" s="3">
+        <v>17.193999999999999</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>16.66</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>16.952000000000002</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>16.962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.77</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.623</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.758</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.962</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.964</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.996</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.966</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>4.37</v>
+      </c>
+      <c r="U9" s="3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="V9" s="3">
+        <v>4.97</v>
+      </c>
+      <c r="W9" s="3">
+        <v>4.7140000000000004</v>
+      </c>
+      <c r="X9" s="3">
+        <v>5.04</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2.74</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>2.9359999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>12.34</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13.664</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13.294</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13.353999999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12.285</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12.255000000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12.664</v>
+      </c>
+      <c r="K10" s="3">
+        <v>12.356</v>
+      </c>
+      <c r="L10" s="3">
+        <v>12.332000000000001</v>
+      </c>
+      <c r="M10" s="3">
+        <v>12.897</v>
+      </c>
+      <c r="N10" s="3">
+        <v>11.59</v>
+      </c>
+      <c r="O10" s="3">
+        <v>11.95</v>
+      </c>
+      <c r="P10" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>12.587999999999999</v>
+      </c>
+      <c r="R10" s="3">
+        <v>12.574999999999999</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3">
+        <v>12.414999999999999</v>
+      </c>
+      <c r="U10" s="3">
+        <v>13.034000000000001</v>
+      </c>
+      <c r="V10" s="3">
+        <v>12.994</v>
+      </c>
+      <c r="W10" s="3">
+        <v>13.343999999999999</v>
+      </c>
+      <c r="X10" s="3">
+        <v>13.395</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>(11.025+3.24)</f>
+        <v>14.265000000000001</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>(10.465+3.66)</f>
+        <v>14.125</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>(10.795+3.71)</f>
+        <v>14.504999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.956</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.982</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.966</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.972</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>4.915</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="U11" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="V11" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="W11" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="X11" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>4.92</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>5.7629999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="V13" s="3">
+        <v>2.33</v>
+      </c>
+      <c r="W13" s="3">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="X13" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.1709999999999998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.198</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1.022</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="27" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42">
+        <v>45809</v>
+      </c>
+      <c r="C1" s="42">
+        <v>45810</v>
+      </c>
+      <c r="D1" s="42">
+        <v>45811</v>
+      </c>
+      <c r="E1" s="42">
+        <v>45812</v>
+      </c>
+      <c r="F1" s="42">
+        <v>45813</v>
+      </c>
+      <c r="G1" s="42">
+        <v>45815</v>
+      </c>
+      <c r="H1" s="42">
+        <v>45816</v>
+      </c>
+      <c r="I1" s="42">
+        <v>45817</v>
+      </c>
+      <c r="J1" s="42">
+        <v>45818</v>
+      </c>
+      <c r="K1" s="42">
+        <v>45819</v>
+      </c>
+      <c r="L1" s="42">
+        <v>45820</v>
+      </c>
+      <c r="M1" s="42">
+        <v>45822</v>
+      </c>
+      <c r="N1" s="42">
+        <v>45823</v>
+      </c>
+      <c r="O1" s="42">
+        <v>45824</v>
+      </c>
+      <c r="P1" s="42">
+        <v>45825</v>
+      </c>
+      <c r="Q1" s="42">
+        <v>45826</v>
+      </c>
+      <c r="R1" s="42">
+        <v>45827</v>
+      </c>
+      <c r="S1" s="42">
+        <v>45829</v>
+      </c>
+      <c r="T1" s="42">
+        <v>45830</v>
+      </c>
+      <c r="U1" s="42">
+        <v>45831</v>
+      </c>
+      <c r="V1" s="42">
+        <v>45832</v>
+      </c>
+      <c r="W1" s="42">
+        <v>45833</v>
+      </c>
+      <c r="X1" s="42">
+        <v>45834</v>
+      </c>
+      <c r="Y1" s="42">
+        <v>45836</v>
+      </c>
+      <c r="Z1" s="42">
+        <v>45837</v>
+      </c>
+      <c r="AA1" s="42">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="27" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42">
+        <v>45809</v>
+      </c>
+      <c r="C1" s="42">
+        <v>45810</v>
+      </c>
+      <c r="D1" s="42">
+        <v>45811</v>
+      </c>
+      <c r="E1" s="42">
+        <v>45812</v>
+      </c>
+      <c r="F1" s="42">
+        <v>45813</v>
+      </c>
+      <c r="G1" s="42">
+        <v>45815</v>
+      </c>
+      <c r="H1" s="42">
+        <v>45816</v>
+      </c>
+      <c r="I1" s="42">
+        <v>45817</v>
+      </c>
+      <c r="J1" s="42">
+        <v>45818</v>
+      </c>
+      <c r="K1" s="42">
+        <v>45819</v>
+      </c>
+      <c r="L1" s="42">
+        <v>45820</v>
+      </c>
+      <c r="M1" s="42">
+        <v>45822</v>
+      </c>
+      <c r="N1" s="42">
+        <v>45823</v>
+      </c>
+      <c r="O1" s="42">
+        <v>45824</v>
+      </c>
+      <c r="P1" s="42">
+        <v>45825</v>
+      </c>
+      <c r="Q1" s="42">
+        <v>45826</v>
+      </c>
+      <c r="R1" s="42">
+        <v>45827</v>
+      </c>
+      <c r="S1" s="42">
+        <v>45829</v>
+      </c>
+      <c r="T1" s="42">
+        <v>45830</v>
+      </c>
+      <c r="U1" s="42">
+        <v>45831</v>
+      </c>
+      <c r="V1" s="42">
+        <v>45832</v>
+      </c>
+      <c r="W1" s="42">
+        <v>45833</v>
+      </c>
+      <c r="X1" s="42">
+        <v>45834</v>
+      </c>
+      <c r="Y1" s="42">
+        <v>45836</v>
+      </c>
+      <c r="Z1" s="42">
+        <v>45837</v>
+      </c>
+      <c r="AA1" s="42">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.218</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.874</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1.073</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3">
+        <f>(393.72+362.88)/1000</f>
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="U2" s="3">
+        <f>(524.96+362.88)/1000</f>
+        <v>0.88784000000000007</v>
+      </c>
+      <c r="V2" s="3">
+        <f>(362.88+466.4)/1000</f>
+        <v>0.82928000000000002</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>(544.32+746.24)/1000</f>
+        <v>1.2905599999999999</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>(787+651+363)/1000</f>
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>(1050+1301)/1000</f>
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>24.364000000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>27.931000000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>28.276</v>
+      </c>
+      <c r="F4" s="3">
+        <v>28.449000000000002</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>25.244</v>
+      </c>
+      <c r="I4" s="3">
+        <v>27.843</v>
+      </c>
+      <c r="J4" s="3">
+        <v>28.300999999999998</v>
+      </c>
+      <c r="K4" s="3">
+        <v>29.533999999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>29.849</v>
+      </c>
+      <c r="M4" s="3">
+        <v>29.431999999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>29.437000000000001</v>
+      </c>
+      <c r="O4" s="3">
+        <v>28.43</v>
+      </c>
+      <c r="P4" s="3">
+        <v>30.077000000000002</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>30.244</v>
+      </c>
+      <c r="R4" s="3">
+        <v>29.713000000000001</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
+        <v>30.893999999999998</v>
+      </c>
+      <c r="U4" s="3">
+        <v>31.443000000000001</v>
+      </c>
+      <c r="V4" s="3">
+        <v>30.206</v>
+      </c>
+      <c r="W4" s="3">
+        <v>31.728000000000002</v>
+      </c>
+      <c r="X4" s="3">
+        <v>31.792000000000002</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>31.364999999999998</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>30.933</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>31.308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.577</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1.605</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1.897</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
+        <v>2.964</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2.964</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1.657</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1.284</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1.284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.443</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.502</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.497</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.503</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.246</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <f>33/1000</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="X7" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="27" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42">
+        <v>45809</v>
+      </c>
+      <c r="C1" s="42">
+        <v>45810</v>
+      </c>
+      <c r="D1" s="42">
+        <v>45811</v>
+      </c>
+      <c r="E1" s="42">
+        <v>45812</v>
+      </c>
+      <c r="F1" s="42">
+        <v>45813</v>
+      </c>
+      <c r="G1" s="42">
+        <v>45815</v>
+      </c>
+      <c r="H1" s="42">
+        <v>45816</v>
+      </c>
+      <c r="I1" s="42">
+        <v>45817</v>
+      </c>
+      <c r="J1" s="42">
+        <v>45818</v>
+      </c>
+      <c r="K1" s="42">
+        <v>45819</v>
+      </c>
+      <c r="L1" s="42">
+        <v>45820</v>
+      </c>
+      <c r="M1" s="42">
+        <v>45822</v>
+      </c>
+      <c r="N1" s="42">
+        <v>45823</v>
+      </c>
+      <c r="O1" s="42">
+        <v>45824</v>
+      </c>
+      <c r="P1" s="42">
+        <v>45825</v>
+      </c>
+      <c r="Q1" s="42">
+        <v>45826</v>
+      </c>
+      <c r="R1" s="42">
+        <v>45827</v>
+      </c>
+      <c r="S1" s="42">
+        <v>45829</v>
+      </c>
+      <c r="T1" s="42">
+        <v>45830</v>
+      </c>
+      <c r="U1" s="42">
+        <v>45831</v>
+      </c>
+      <c r="V1" s="42">
+        <v>45832</v>
+      </c>
+      <c r="W1" s="42">
+        <v>45833</v>
+      </c>
+      <c r="X1" s="42">
+        <v>45834</v>
+      </c>
+      <c r="Y1" s="42">
+        <v>45836</v>
+      </c>
+      <c r="Z1" s="42">
+        <v>45837</v>
+      </c>
+      <c r="AA1" s="42">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3">
+        <v>11</v>
+      </c>
+      <c r="P3" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>11</v>
+      </c>
+      <c r="R3" s="3">
+        <v>11</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3">
+        <v>11</v>
+      </c>
+      <c r="U3" s="3">
+        <v>11</v>
+      </c>
+      <c r="V3" s="3">
+        <v>11</v>
+      </c>
+      <c r="W3" s="3">
+        <v>11.25</v>
+      </c>
+      <c r="X3" s="3">
+        <v>10.89</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
+        <v>3</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="W4" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="X4" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>12</v>
+      </c>
+      <c r="N5" s="3">
+        <v>12</v>
+      </c>
+      <c r="O5" s="3">
+        <v>15</v>
+      </c>
+      <c r="P5" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3">
+        <v>18.215</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="U5" s="3">
+        <v>17</v>
+      </c>
+      <c r="V5" s="3">
+        <v>16.545000000000002</v>
+      </c>
+      <c r="W5" s="3">
+        <v>16.93</v>
+      </c>
+      <c r="X5" s="3">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>18.05</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3">
+        <v>7</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="U6" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="V6" s="3">
+        <v>11</v>
+      </c>
+      <c r="W6" s="3">
+        <v>11</v>
+      </c>
+      <c r="X6" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3">
+        <v>151.34800000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>151.34800000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>151.34800000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>103.495</v>
+      </c>
+      <c r="F7" s="3">
+        <v>103.495</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>103.495</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>92.052999999999997</v>
+      </c>
+      <c r="K7" s="3">
+        <v>92.052999999999997</v>
+      </c>
+      <c r="L7" s="3">
+        <v>88.753</v>
+      </c>
+      <c r="M7" s="3">
+        <v>85.183999999999997</v>
+      </c>
+      <c r="N7" s="3">
+        <v>85.183999999999997</v>
+      </c>
+      <c r="O7" s="3">
+        <v>81.912000000000006</v>
+      </c>
+      <c r="P7" s="3">
+        <v>83.997</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>74.016999999999996</v>
+      </c>
+      <c r="R7" s="3">
+        <v>60.713999999999999</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3">
+        <v>46.661000000000001</v>
+      </c>
+      <c r="U7" s="3">
+        <v>46.235999999999997</v>
+      </c>
+      <c r="V7" s="3">
+        <v>31.087</v>
+      </c>
+      <c r="W7" s="3">
+        <v>33.646999999999998</v>
+      </c>
+      <c r="X7" s="3">
+        <v>21.754999999999999</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>26.675000000000001</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>19.21</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>12.106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3">
+        <v>56.957000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>59.128</v>
+      </c>
+      <c r="D10" s="3">
+        <v>61.304000000000002</v>
+      </c>
+      <c r="E10" s="3">
+        <v>63.502000000000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>38.226999999999997</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>50.317</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="3">
+        <v>50.317</v>
+      </c>
+      <c r="K10" s="3">
+        <v>52.524999999999999</v>
+      </c>
+      <c r="L10" s="3">
+        <v>55.631</v>
+      </c>
+      <c r="M10" s="3">
+        <v>57.253999999999998</v>
+      </c>
+      <c r="N10" s="3">
+        <v>59.433999999999997</v>
+      </c>
+      <c r="O10" s="3">
+        <v>51.454000000000001</v>
+      </c>
+      <c r="P10" s="3">
+        <v>51.454000000000001</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>53.054000000000002</v>
+      </c>
+      <c r="R10" s="3">
+        <v>54.914000000000001</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3">
+        <v>59.073999999999998</v>
+      </c>
+      <c r="U10" s="3">
+        <v>60.423999999999999</v>
+      </c>
+      <c r="V10" s="3">
+        <v>61.445999999999998</v>
+      </c>
+      <c r="W10" s="3">
+        <v>62.470999999999997</v>
+      </c>
+      <c r="X10" s="3">
+        <v>53.625999999999998</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>53.625999999999998</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>44.625999999999998</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>36.625999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.758</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.5140000000000002</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8.391</v>
+      </c>
+      <c r="F11" s="3">
+        <v>11.161</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>11.926</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="3">
+        <v>11.926</v>
+      </c>
+      <c r="K11" s="3">
+        <v>14.101000000000001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>15.971</v>
+      </c>
+      <c r="M11" s="3">
+        <v>18.140999999999998</v>
+      </c>
+      <c r="N11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="O11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="P11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="R11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="U11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="V11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="W11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="X11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>19.771000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="R15" s="3">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U15" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V15" s="3">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
+        <v>5.45</v>
+      </c>
+      <c r="X15" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3">
+        <v>2</v>
+      </c>
+      <c r="U16" s="3">
+        <v>2</v>
+      </c>
+      <c r="V16" s="3">
+        <v>2</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2</v>
+      </c>
+      <c r="X16" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="27" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42">
+        <v>45809</v>
+      </c>
+      <c r="C1" s="42">
+        <v>45810</v>
+      </c>
+      <c r="D1" s="42">
+        <v>45811</v>
+      </c>
+      <c r="E1" s="42">
+        <v>45812</v>
+      </c>
+      <c r="F1" s="42">
+        <v>45813</v>
+      </c>
+      <c r="G1" s="42">
+        <v>45815</v>
+      </c>
+      <c r="H1" s="42">
+        <v>45816</v>
+      </c>
+      <c r="I1" s="42">
+        <v>45817</v>
+      </c>
+      <c r="J1" s="42">
+        <v>45818</v>
+      </c>
+      <c r="K1" s="42">
+        <v>45819</v>
+      </c>
+      <c r="L1" s="42">
+        <v>45820</v>
+      </c>
+      <c r="M1" s="42">
+        <v>45822</v>
+      </c>
+      <c r="N1" s="42">
+        <v>45823</v>
+      </c>
+      <c r="O1" s="42">
+        <v>45824</v>
+      </c>
+      <c r="P1" s="42">
+        <v>45825</v>
+      </c>
+      <c r="Q1" s="42">
+        <v>45826</v>
+      </c>
+      <c r="R1" s="42">
+        <v>45827</v>
+      </c>
+      <c r="S1" s="42">
+        <v>45829</v>
+      </c>
+      <c r="T1" s="42">
+        <v>45830</v>
+      </c>
+      <c r="U1" s="42">
+        <v>45831</v>
+      </c>
+      <c r="V1" s="42">
+        <v>45832</v>
+      </c>
+      <c r="W1" s="42">
+        <v>45833</v>
+      </c>
+      <c r="X1" s="42">
+        <v>45834</v>
+      </c>
+      <c r="Y1" s="42">
+        <v>45836</v>
+      </c>
+      <c r="Z1" s="42">
+        <v>45837</v>
+      </c>
+      <c r="AA1" s="42">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5.01</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4.875</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5.07</v>
+      </c>
+      <c r="O4" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="R4" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="U4" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="W4" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="X4" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="L6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="O6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="P6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="R6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="U6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="V6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="W6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="X6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="K8" s="34">
+        <v>1.17</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3">
+        <v>0.435</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.335</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>